--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Execute</t>
   </si>
@@ -48,9 +48,6 @@
     <t>TC_001_02</t>
   </si>
   <si>
-    <t>TC</t>
-  </si>
-  <si>
     <t>MOB_TC001_LogIntoTreatApp</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
   </si>
   <si>
     <t>Yogesh@946</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>Tcsample</t>
   </si>
 </sst>
 </file>
@@ -560,8 +566,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -630,9 +636,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -647,28 +655,32 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogesha\Desktop\TreatApp WorkSpace\Mobile\Mobile\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -33,21 +29,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>mbltst0098</t>
-  </si>
-  <si>
-    <t>Mobiletest0098</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>TC_001_01</t>
-  </si>
-  <si>
-    <t>TC_001_02</t>
-  </si>
-  <si>
     <t>MOB_TC001_LogIntoTreatApp</t>
   </si>
   <si>
@@ -72,7 +53,19 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>Tcsample</t>
+    <t>MOB_TC002_LogIntoTreatApp</t>
+  </si>
+  <si>
+    <t>MOB_TC002_LogIntoTreatApp_01</t>
+  </si>
+  <si>
+    <t>MOB_TC002_LogIntoTreatApp_02</t>
+  </si>
+  <si>
+    <t>aug12androidtreatuser1@yopmail.com</t>
+  </si>
+  <si>
+    <t>TC2</t>
   </si>
 </sst>
 </file>
@@ -99,7 +92,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +102,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="51"/>
       </patternFill>
     </fill>
@@ -146,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -156,9 +143,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +550,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +567,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -599,38 +583,38 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -640,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -653,33 +637,33 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,16 +676,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2:C4 C6:C7">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2:C3 C6:C7 C4">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogesha\Desktop\TreatApp WorkSpace\CurrentWorkingFramework\TreatAutomationFramework\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6135" tabRatio="500"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -551,7 +555,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
